--- a/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42587.832430555558</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -610,6 +610,293 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42601.767430555556</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42601.76935185185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42601.770104166666</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42601.771111111113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42601.771539351852</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42601.772905092592</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>100</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42601.7733912037</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -897,6 +897,293 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42601.977083333331</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42601.988379629627</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42601.988946759258</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42601.99114583333</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42601.995023148149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>66</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42601.997997685183</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42601.999166666668</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>72</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,6 +1184,293 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42602.00953703704</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42602.014432870368</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42602.015277777777</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42602.495196759257</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42602.495486111111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42602.495729166665</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42602.495798611111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,6 +1471,129 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42602.513611111113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42602.516736111109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42602.524085648147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1594,6 +1594,129 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42602.576064814813</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>163</v>
+      </c>
+      <c r="D30">
+        <v>338</v>
+      </c>
+      <c r="E30">
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <v>16</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>69</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42602.576898148145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
+        <v>144</v>
+      </c>
+      <c r="D31">
+        <v>338</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>69</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42602.577210648145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>138</v>
+      </c>
+      <c r="D32">
+        <v>338</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>81</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1717,6 +1717,211 @@
         <v>100</v>
       </c>
     </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42603.690995370373</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>157</v>
+      </c>
+      <c r="D33">
+        <v>339</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>78</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42603.691562499997</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>145</v>
+      </c>
+      <c r="D34">
+        <v>340</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>21</v>
+      </c>
+      <c r="I34">
+        <v>78</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42603.692546296297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>175</v>
+      </c>
+      <c r="D35">
+        <v>340</v>
+      </c>
+      <c r="E35">
+        <v>31</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>21</v>
+      </c>
+      <c r="I35">
+        <v>78</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42603.692847222221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>161</v>
+      </c>
+      <c r="D36">
+        <v>340</v>
+      </c>
+      <c r="E36">
+        <v>31</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>21</v>
+      </c>
+      <c r="I36">
+        <v>78</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42603.693483796298</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>174</v>
+      </c>
+      <c r="D37">
+        <v>340</v>
+      </c>
+      <c r="E37">
+        <v>31</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>24</v>
+      </c>
+      <c r="I37">
+        <v>74</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/EXAMPLEEXCEL1/EXAMPLEEXCEL1Bag.xlsx
@@ -24,45 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>totalScore</t>
+  </si>
+  <si>
+    <t>posWordPercentage</t>
+  </si>
+  <si>
+    <t>negWordPercentage</t>
+  </si>
+  <si>
+    <t>posPhrasePercentage</t>
+  </si>
+  <si>
+    <t>negPhrasePercentage</t>
+  </si>
+  <si>
+    <t>ElapsedMs</t>
+  </si>
+  <si>
+    <t>wordCount</t>
+  </si>
+  <si>
+    <t>sentenceCount</t>
+  </si>
+  <si>
+    <t>posWordCount</t>
+  </si>
+  <si>
+    <t>negWordCount</t>
+  </si>
+  <si>
+    <t>positivePhraseCount</t>
+  </si>
+  <si>
+    <t>negativePhraseCount</t>
+  </si>
+  <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>ElapsedMs</t>
-  </si>
-  <si>
-    <t>wordCount</t>
-  </si>
-  <si>
-    <t>sentenceCount</t>
-  </si>
-  <si>
-    <t>posWordCount</t>
-  </si>
-  <si>
-    <t>negWordCount</t>
-  </si>
-  <si>
-    <t>posWordPercentage</t>
-  </si>
-  <si>
-    <t>negWordPercentage</t>
-  </si>
-  <si>
-    <t>positivePhraseCount</t>
-  </si>
-  <si>
-    <t>negativePhraseCount</t>
-  </si>
-  <si>
-    <t>posPhrasePercentage</t>
-  </si>
-  <si>
-    <t>negPhrasePercentage</t>
   </si>
   <si>
     <t>Bag</t>
@@ -384,28 +387,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,169 +448,96 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42604.355567129627</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+        <v>42605.492986111109</v>
+      </c>
+      <c r="B2">
+        <v>-45</v>
       </c>
       <c r="C2">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>194</v>
+      </c>
+      <c r="H2">
+        <v>342</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="G2">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>18</v>
-      </c>
-      <c r="I2">
-        <v>81</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42605.49527777778</v>
+      </c>
+      <c r="B3">
+        <v>-90</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>82</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42604.367546296293</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>162</v>
-      </c>
-      <c r="D3">
-        <v>340</v>
-      </c>
-      <c r="E3">
+      <c r="G3">
+        <v>233</v>
+      </c>
+      <c r="H3">
+        <v>341</v>
+      </c>
+      <c r="I3">
         <v>31</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>18</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>81</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42604.367812500001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>178</v>
-      </c>
-      <c r="D4">
-        <v>340</v>
-      </c>
-      <c r="E4">
-        <v>31</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>81</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42604.367812500001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>172</v>
-      </c>
-      <c r="D5">
-        <v>340</v>
-      </c>
-      <c r="E5">
-        <v>31</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>18</v>
-      </c>
-      <c r="I5">
-        <v>81</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
